--- a/simsum-to-do.xlsx
+++ b/simsum-to-do.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ado\ian\simsum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C93536AF-4155-4A7E-A290-EC147E3419C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F119D955-EBBE-47B3-832F-466757022D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28710" yWindow="660" windowWidth="39555" windowHeight="15435" xr2:uid="{87860968-D247-4434-BA88-C25E6C21BE02}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="30330" windowHeight="13320" xr2:uid="{87860968-D247-4434-BA88-C25E6C21BE02}"/>
   </bookViews>
   <sheets>
     <sheet name="To do" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>DONE</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Add null() option to change calculation of power (use in NI and SS trials). (email discussion with Tra.)</t>
+  </si>
+  <si>
+    <t>give better output if all b's are equal</t>
+  </si>
+  <si>
+    <t>ACTION2</t>
+  </si>
+  <si>
+    <t>Add precision-weighted bias and its MCSE</t>
   </si>
 </sst>
 </file>
@@ -133,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -156,11 +168,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -169,9 +277,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -185,26 +290,200 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -229,8 +508,19 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60F91EE3-BC2B-4F0B-9553-EE0AAEA8F554}" name="Table1" displayName="Table1" ref="A2:F14" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A2:F14" xr:uid="{60F91EE3-BC2B-4F0B-9553-EE0AAEA8F554}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{49D243F4-0615-4267-B574-1A4EAAE7DC68}" name="TASK" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{AED7BF4D-DEB9-4039-9FFC-87E3B7FDEA41}" name="FROM" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{3B6619DA-3B17-42EA-82A1-4E78F163FF26}" name="NOTED" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{7D9508F8-B63B-4129-9D13-32A34F72BA11}" name="ACTION" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{0FD2BD35-654E-4EA3-8F9A-49DC923E65D9}" name="DONE" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{F6F2E120-0DA6-4539-8436-27FC579A6DB0}" name="ACTION2" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,7 +829,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,219 +843,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
+      <c r="F2" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>44433</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>44466</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>44433</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>44466</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>44466</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>44466</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>44466</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>43748</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44627</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="A12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44686</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="A13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44711</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="7"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="7"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="7"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="A19" s="7"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="7"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="A21" s="7"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="7"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+      <c r="A23" s="7"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="A24" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F2" xr:uid="{B1640A00-C87C-4D5C-9CCF-AB88E6608D8E}"/>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="4" priority="32">
+    <cfRule type="expression" dxfId="11" priority="32">
       <formula>ISBLANK($E3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A14">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>ISBLANK($E4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -774,5 +1081,8 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;F&amp;R&amp;D &amp;T</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>